--- a/data_year/zb/资源和环境/地质灾害及防治.xlsx
+++ b/data_year/zb/资源和环境/地质灾害及防治.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,619 +488,430 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13555</v>
+        <v>30670</v>
       </c>
       <c r="C2" t="n">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="D2" t="n">
-        <v>2593</v>
+        <v>5688</v>
       </c>
       <c r="E2" t="n">
-        <v>1157</v>
+        <v>1981</v>
       </c>
       <c r="F2" t="n">
-        <v>9130</v>
+        <v>22250</v>
       </c>
       <c r="G2" t="n">
-        <v>1407</v>
+        <v>3445</v>
       </c>
       <c r="H2" t="n">
-        <v>734</v>
+        <v>2244</v>
       </c>
       <c r="I2" t="n">
-        <v>408828</v>
+        <v>638508.5</v>
       </c>
       <c r="J2" t="n">
-        <v>175231</v>
+        <v>1159813</v>
       </c>
       <c r="K2" t="n">
-        <v>2247</v>
+        <v>28106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17751</v>
+        <v>15804</v>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="D3" t="n">
-        <v>7654</v>
+        <v>2445</v>
       </c>
       <c r="E3" t="n">
-        <v>566</v>
+        <v>1356</v>
       </c>
       <c r="F3" t="n">
-        <v>9367</v>
+        <v>11504</v>
       </c>
       <c r="G3" t="n">
-        <v>1223</v>
+        <v>413</v>
       </c>
       <c r="H3" t="n">
-        <v>578</v>
+        <v>244</v>
       </c>
       <c r="I3" t="n">
-        <v>357678.07</v>
+        <v>413151</v>
       </c>
       <c r="J3" t="n">
-        <v>166860.16</v>
+        <v>928085.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3179</v>
+        <v>20871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102804</v>
+        <v>14675</v>
       </c>
       <c r="C4" t="n">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="D4" t="n">
-        <v>13160</v>
+        <v>2152</v>
       </c>
       <c r="E4" t="n">
-        <v>417</v>
+        <v>952</v>
       </c>
       <c r="F4" t="n">
-        <v>88523</v>
+        <v>11112</v>
       </c>
       <c r="G4" t="n">
-        <v>1227</v>
+        <v>636</v>
       </c>
       <c r="H4" t="n">
-        <v>663</v>
+        <v>293</v>
       </c>
       <c r="I4" t="n">
-        <v>431590.13</v>
+        <v>625253</v>
       </c>
       <c r="J4" t="n">
-        <v>193569.86</v>
+        <v>1024183</v>
       </c>
       <c r="K4" t="n">
-        <v>2914</v>
+        <v>26882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25364</v>
+        <v>15374</v>
       </c>
       <c r="C5" t="n">
-        <v>578</v>
+        <v>385</v>
       </c>
       <c r="D5" t="n">
-        <v>7722</v>
+        <v>3288</v>
       </c>
       <c r="E5" t="n">
-        <v>1215</v>
+        <v>1547</v>
       </c>
       <c r="F5" t="n">
-        <v>15478</v>
+        <v>9832</v>
       </c>
       <c r="G5" t="n">
-        <v>1123</v>
+        <v>929</v>
       </c>
       <c r="H5" t="n">
-        <v>598</v>
+        <v>482</v>
       </c>
       <c r="I5" t="n">
-        <v>247528.42</v>
+        <v>1043567.56</v>
       </c>
       <c r="J5" t="n">
-        <v>244884.66</v>
+        <v>1235363.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3492</v>
+        <v>36984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26580</v>
+        <v>10937</v>
       </c>
       <c r="C6" t="n">
-        <v>454</v>
+        <v>307</v>
       </c>
       <c r="D6" t="n">
-        <v>8080</v>
+        <v>1860</v>
       </c>
       <c r="E6" t="n">
-        <v>843</v>
+        <v>554</v>
       </c>
       <c r="F6" t="n">
-        <v>13450</v>
+        <v>8149</v>
       </c>
       <c r="G6" t="n">
-        <v>1598</v>
+        <v>637</v>
       </c>
       <c r="H6" t="n">
-        <v>656</v>
+        <v>360</v>
       </c>
       <c r="I6" t="n">
-        <v>326936.35</v>
+        <v>567027.45</v>
       </c>
       <c r="J6" t="n">
-        <v>529938.9300000001</v>
+        <v>1634039.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5325</v>
+        <v>32019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10580</v>
+        <v>8355</v>
       </c>
       <c r="C7" t="n">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="D7" t="n">
-        <v>2378</v>
+        <v>1870</v>
       </c>
       <c r="E7" t="n">
-        <v>1442</v>
+        <v>483</v>
       </c>
       <c r="F7" t="n">
-        <v>6310</v>
+        <v>5668</v>
       </c>
       <c r="G7" t="n">
-        <v>845</v>
+        <v>422</v>
       </c>
       <c r="H7" t="n">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="I7" t="n">
-        <v>190109.4</v>
+        <v>250527.54</v>
       </c>
       <c r="J7" t="n">
-        <v>542367.6</v>
+        <v>1762662.91</v>
       </c>
       <c r="K7" t="n">
-        <v>28061</v>
+        <v>26289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30670</v>
+        <v>10997</v>
       </c>
       <c r="C8" t="n">
-        <v>478</v>
+        <v>225</v>
       </c>
       <c r="D8" t="n">
-        <v>5688</v>
+        <v>1905</v>
       </c>
       <c r="E8" t="n">
-        <v>1981</v>
+        <v>652</v>
       </c>
       <c r="F8" t="n">
-        <v>22250</v>
+        <v>8194</v>
       </c>
       <c r="G8" t="n">
-        <v>3445</v>
+        <v>593</v>
       </c>
       <c r="H8" t="n">
-        <v>2244</v>
+        <v>362</v>
       </c>
       <c r="I8" t="n">
-        <v>638508.5</v>
+        <v>354289.79</v>
       </c>
       <c r="J8" t="n">
-        <v>1159813</v>
+        <v>1360233.96</v>
       </c>
       <c r="K8" t="n">
-        <v>28106</v>
+        <v>28190</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15804</v>
+        <v>7521</v>
       </c>
       <c r="C9" t="n">
-        <v>386</v>
+        <v>206</v>
       </c>
       <c r="D9" t="n">
-        <v>2445</v>
+        <v>1356</v>
       </c>
       <c r="E9" t="n">
-        <v>1356</v>
+        <v>387</v>
       </c>
       <c r="F9" t="n">
-        <v>11504</v>
+        <v>5524</v>
       </c>
       <c r="G9" t="n">
-        <v>413</v>
+        <v>523</v>
       </c>
       <c r="H9" t="n">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="I9" t="n">
-        <v>413151</v>
+        <v>359476.62</v>
       </c>
       <c r="J9" t="n">
-        <v>928085.45</v>
+        <v>1635940.5</v>
       </c>
       <c r="K9" t="n">
-        <v>20871</v>
+        <v>17602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14675</v>
+        <v>2966</v>
       </c>
       <c r="C10" t="n">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="D10" t="n">
-        <v>2152</v>
+        <v>858</v>
       </c>
       <c r="E10" t="n">
-        <v>952</v>
+        <v>339</v>
       </c>
       <c r="F10" t="n">
-        <v>11112</v>
+        <v>1631</v>
       </c>
       <c r="G10" t="n">
-        <v>636</v>
+        <v>185</v>
       </c>
       <c r="H10" t="n">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="I10" t="n">
-        <v>625253</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1024183</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26882</v>
-      </c>
+        <v>147128.25</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15374</v>
+        <v>6181</v>
       </c>
       <c r="C11" t="n">
-        <v>385</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
-        <v>3288</v>
+        <v>1238</v>
       </c>
       <c r="E11" t="n">
-        <v>1547</v>
+        <v>599</v>
       </c>
       <c r="F11" t="n">
-        <v>9832</v>
+        <v>4220</v>
       </c>
       <c r="G11" t="n">
-        <v>929</v>
+        <v>299</v>
       </c>
       <c r="H11" t="n">
-        <v>482</v>
+        <v>211</v>
       </c>
       <c r="I11" t="n">
-        <v>1043567.56</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1235363.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>36984</v>
-      </c>
+        <v>276868.37</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10937</v>
+        <v>7840</v>
       </c>
       <c r="C12" t="n">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="D12" t="n">
-        <v>1860</v>
+        <v>1797</v>
       </c>
       <c r="E12" t="n">
-        <v>554</v>
+        <v>899</v>
       </c>
       <c r="F12" t="n">
-        <v>8149</v>
+        <v>4810</v>
       </c>
       <c r="G12" t="n">
-        <v>637</v>
+        <v>197</v>
       </c>
       <c r="H12" t="n">
-        <v>360</v>
+        <v>117</v>
       </c>
       <c r="I12" t="n">
-        <v>567027.45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1634039.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>32019</v>
-      </c>
+        <v>502026.74</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8355</v>
+        <v>4761</v>
       </c>
       <c r="C13" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D13" t="n">
-        <v>1870</v>
+        <v>1746</v>
       </c>
       <c r="E13" t="n">
-        <v>483</v>
+        <v>374</v>
       </c>
       <c r="F13" t="n">
-        <v>5668</v>
+        <v>2335</v>
       </c>
       <c r="G13" t="n">
-        <v>422</v>
+        <v>129</v>
       </c>
       <c r="H13" t="n">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="I13" t="n">
-        <v>250527.54</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1762662.91</v>
-      </c>
-      <c r="K13" t="n">
-        <v>26289</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10997</v>
-      </c>
-      <c r="C14" t="n">
-        <v>225</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1905</v>
-      </c>
-      <c r="E14" t="n">
-        <v>652</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8194</v>
-      </c>
-      <c r="G14" t="n">
-        <v>593</v>
-      </c>
-      <c r="H14" t="n">
-        <v>362</v>
-      </c>
-      <c r="I14" t="n">
-        <v>354289.79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1360233.96</v>
-      </c>
-      <c r="K14" t="n">
-        <v>28190</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7521</v>
-      </c>
-      <c r="C15" t="n">
-        <v>206</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1356</v>
-      </c>
-      <c r="E15" t="n">
-        <v>387</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5524</v>
-      </c>
-      <c r="G15" t="n">
-        <v>523</v>
-      </c>
-      <c r="H15" t="n">
-        <v>329</v>
-      </c>
-      <c r="I15" t="n">
-        <v>359476.62</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1635940.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>17602</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2966</v>
-      </c>
-      <c r="C16" t="n">
-        <v>122</v>
-      </c>
-      <c r="D16" t="n">
-        <v>858</v>
-      </c>
-      <c r="E16" t="n">
-        <v>339</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1631</v>
-      </c>
-      <c r="G16" t="n">
-        <v>185</v>
-      </c>
-      <c r="H16" t="n">
-        <v>105</v>
-      </c>
-      <c r="I16" t="n">
-        <v>147128.25</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6181</v>
-      </c>
-      <c r="C17" t="n">
-        <v>121</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1238</v>
-      </c>
-      <c r="E17" t="n">
-        <v>599</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4220</v>
-      </c>
-      <c r="G17" t="n">
-        <v>299</v>
-      </c>
-      <c r="H17" t="n">
-        <v>211</v>
-      </c>
-      <c r="I17" t="n">
-        <v>276868.37</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7840</v>
-      </c>
-      <c r="C18" t="n">
-        <v>183</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1797</v>
-      </c>
-      <c r="E18" t="n">
-        <v>899</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4810</v>
-      </c>
-      <c r="G18" t="n">
-        <v>197</v>
-      </c>
-      <c r="H18" t="n">
-        <v>117</v>
-      </c>
-      <c r="I18" t="n">
-        <v>502026.74</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>320024.509</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
